--- a/EE104_Lab2/Simple_Registration_Database.xlsx
+++ b/EE104_Lab2/Simple_Registration_Database.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,6 +1104,99 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100193</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1111111111</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>jason@gmail.com</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>one Washington</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>44610.00347222222</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>+11111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pranav</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Konduru</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10100000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9255777863</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>pranav.konduru@sjsu.edu</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>One Washington Square</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>44610.00347222222</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>+19255777863</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
